--- a/Employee Data/PASSPORT_Renewal Request.xlsx
+++ b/Employee Data/PASSPORT_Renewal Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F0A419-E7F9-4CE4-BF34-DA20AB1456D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5DF08D-870B-48A5-94B6-8948111EB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="180" windowWidth="15768" windowHeight="12060" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>NAME</t>
   </si>
@@ -70,6 +70,60 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>prem sagar</t>
+  </si>
+  <si>
+    <t>Mainuddin Ansari</t>
+  </si>
+  <si>
+    <t>Saddam Ali</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>To Pick Passport</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Haroon</t>
+  </si>
+  <si>
+    <t>Ragubheer pandit</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Wali Hussain</t>
+  </si>
+  <si>
+    <t>18/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/ 2026</t>
+  </si>
+  <si>
+    <t>Abdel kareem Aitba</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Bharat kumar</t>
+  </si>
+  <si>
+    <t>22/5/2026</t>
+  </si>
+  <si>
+    <t>Arun Pal</t>
   </si>
 </sst>
 </file>
@@ -179,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,7 +261,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,7 +587,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -537,27 +596,27 @@
     <col min="2" max="2" width="8.296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -573,7 +632,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -581,7 +640,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
       <c r="B4" s="11">
         <v>3139</v>
       </c>
@@ -591,7 +652,7 @@
       <c r="D4" s="10">
         <v>577468451</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -599,8 +660,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4137</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
@@ -615,76 +680,187 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2940</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>574948683</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3265</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>506331059</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2215</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>596766323</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4267</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10">
+        <v>575053217</v>
+      </c>
+      <c r="E9" s="19">
+        <v>46236</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4164</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10">
+        <v>572530270</v>
+      </c>
+      <c r="E10" s="19">
+        <v>45942</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4271</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13">
+        <v>551289037</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4496</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
+        <v>530361335</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2178</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14">
+        <v>507726497</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2660</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17">
+        <v>540481087</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>

--- a/Employee Data/PASSPORT_Renewal Request.xlsx
+++ b/Employee Data/PASSPORT_Renewal Request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5DF08D-870B-48A5-94B6-8948111EB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43573EFA-4F96-4111-9378-594BE4A1DB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Irfan</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Arun Pal</t>
+  </si>
+  <si>
+    <t>Adil</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +270,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +588,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -664,19 +665,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>4137</v>
+        <v>4444</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10">
-        <v>575157491</v>
+        <v>543897852</v>
       </c>
       <c r="E5" s="19">
         <v>45998</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -687,16 +688,16 @@
         <v>2940</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10">
         <v>574948683</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -707,16 +708,16 @@
         <v>3265</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
         <v>506331059</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -727,16 +728,16 @@
         <v>2215</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10">
         <v>596766323</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -747,7 +748,7 @@
         <v>4267</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10">
         <v>575053217</v>
@@ -767,7 +768,7 @@
         <v>4164</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10">
         <v>572530270</v>
@@ -776,7 +777,7 @@
         <v>45942</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -787,13 +788,13 @@
         <v>4271</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13">
         <v>551289037</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>9</v>
@@ -807,16 +808,16 @@
         <v>4496</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="10">
         <v>530361335</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -827,39 +828,39 @@
         <v>2178</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="14">
         <v>507726497</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>2660</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14">
         <v>540481087</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>

--- a/Employee Data/PASSPORT_Renewal Request.xlsx
+++ b/Employee Data/PASSPORT_Renewal Request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43573EFA-4F96-4111-9378-594BE4A1DB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2BB87-48E2-4165-8907-C22101FBA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>NAME</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Haroon</t>
-  </si>
-  <si>
     <t>Ragubheer pandit</t>
   </si>
   <si>
@@ -124,6 +121,48 @@
   </si>
   <si>
     <t>Adil</t>
+  </si>
+  <si>
+    <t>Anil kumar yadav</t>
+  </si>
+  <si>
+    <t>Abdullha al amin</t>
+  </si>
+  <si>
+    <t>Abdek malek Manjor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamshad shek </t>
+  </si>
+  <si>
+    <t>Shiv Dayal sing</t>
+  </si>
+  <si>
+    <t>Muhammad Umar</t>
+  </si>
+  <si>
+    <t>Asgar miyan</t>
+  </si>
+  <si>
+    <t>21/1/2026</t>
+  </si>
+  <si>
+    <t>naresh mahra</t>
+  </si>
+  <si>
+    <t>26/1/2026</t>
+  </si>
+  <si>
+    <t>Nasir</t>
+  </si>
+  <si>
+    <t>0574760050</t>
+  </si>
+  <si>
+    <t>Indra kamal Jeet</t>
+  </si>
+  <si>
+    <t>0536567158</t>
   </si>
 </sst>
 </file>
@@ -233,9 +272,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,7 +285,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,21 +293,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,312 +628,463 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>3139</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>577468451</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>4444</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9">
+        <v>543897852</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2940</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>574948683</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3265</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <v>506331059</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2215</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9">
+        <v>596766323</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4164</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9">
+        <v>572530270</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45942</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4271</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10">
+        <v>551289037</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4496</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9">
+        <v>530361335</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2178</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14">
+        <v>507726497</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2660</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14">
+        <v>540481087</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3091</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="10">
-        <v>543897852</v>
-      </c>
-      <c r="E5" s="19">
-        <v>45998</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="D14" s="14">
+        <v>597389395</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4240</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>571572167</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2809</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9">
+        <v>573136620</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2906</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="14">
+        <v>556526257</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3362</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9">
+        <v>566124787</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3275</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9">
+        <v>590384802</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45696</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2940</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10">
-        <v>574948683</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3281</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="9">
+        <v>575611498</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3265</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>506331059</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="10" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4155</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="9">
+        <v>530509672</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2215</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10">
-        <v>596766323</v>
-      </c>
-      <c r="E8" s="11" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2162</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F22" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4267</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10">
-        <v>575053217</v>
-      </c>
-      <c r="E9" s="19">
-        <v>46236</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11">
-        <v>4164</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2953</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
-        <v>572530270</v>
-      </c>
-      <c r="E10" s="19">
-        <v>45942</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4271</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13">
-        <v>551289037</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4496</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10">
-        <v>530361335</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2178</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14">
-        <v>507726497</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2660</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="14">
-        <v>540481087</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
